--- a/data/GHG_Data.xlsx
+++ b/data/GHG_Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markd\OneDrive\Desktop\Data\GHG Risk Evaluation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee2fd0c31013e2b7/Desktop/Data/GHG Risk Evaluation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC7346C1-BA97-44F6-8039-43F23767B0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5141C8B4-76F7-4097-AD6A-EC11345FA497}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Data" sheetId="2" r:id="rId1"/>
@@ -17,17 +18,28 @@
     <sheet name="Recovery Potential" sheetId="4" r:id="rId3"/>
     <sheet name="Model Config" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="154">
   <si>
     <t>project_id</t>
   </si>
@@ -173,82 +185,133 @@
     <t>risk_bucket_5_weight_3</t>
   </si>
   <si>
-    <t>Southwest Biomass Site C</t>
+    <t>risk_bucket_6_factor_1</t>
+  </si>
+  <si>
+    <t>risk_bucket_6_weight_1</t>
+  </si>
+  <si>
+    <t>risk_bucket_6_factor_2</t>
+  </si>
+  <si>
+    <t>risk_bucket_6_weight_2</t>
+  </si>
+  <si>
+    <t>risk_bucket_6_factor_3</t>
+  </si>
+  <si>
+    <t>risk_bucket_6_weight_3</t>
+  </si>
+  <si>
+    <t>Southwest Geothermal Site C</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>Company B</t>
+  </si>
+  <si>
+    <t>Northeast Wind Site B</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Company C</t>
+  </si>
+  <si>
+    <t>Southwest Biomass Site E</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Northeast Solar Site B</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Company A</t>
+  </si>
+  <si>
+    <t>Northwest Geothermal Site C</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>Company A</t>
-  </si>
-  <si>
-    <t>Northeast Hydro Site I</t>
-  </si>
-  <si>
-    <t>France</t>
+    <t>Southwest Wind Site J</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Southwest Tidal Site I</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Tidal</t>
+  </si>
+  <si>
+    <t>Northwest Tidal Site F</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Northwest Geothermal Site J</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Company E</t>
+  </si>
+  <si>
+    <t>Midwest Wave Site G</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>Southwest Hydro Site I</t>
   </si>
   <si>
     <t>Hydro</t>
   </si>
   <si>
-    <t>Company E</t>
-  </si>
-  <si>
-    <t>Southwest Geothermal Site H</t>
-  </si>
-  <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
-    <t>Company B</t>
-  </si>
-  <si>
-    <t>Southwest Tidal Site F</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Tidal</t>
-  </si>
-  <si>
-    <t>Southwest Wave Site A</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Wave</t>
-  </si>
-  <si>
-    <t>Southwest Wind Site D</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Northwest Geothermal Site C</t>
-  </si>
-  <si>
-    <t>Company D</t>
-  </si>
-  <si>
-    <t>Midwest Hydro Site E</t>
+    <t>Southeast Biomass Site J</t>
+  </si>
+  <si>
+    <t>Northwest Biomass Site A</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>Southeast Tidal Site G</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Southwest Geothermal Site C</t>
+    <t>Southeast Wave Site D</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Northwest Solar Site C</t>
   </si>
   <si>
     <t>Investment</t>
@@ -413,25 +476,49 @@
     <t>risk_bucket_5_factor_3_rules</t>
   </si>
   <si>
-    <t>Model 60</t>
+    <t>risk_bucket_6_name</t>
+  </si>
+  <si>
+    <t>Risk Bucket 6</t>
+  </si>
+  <si>
+    <t>risk_bucket_6_factor_1_name</t>
+  </si>
+  <si>
+    <t>risk_bucket_6_factor_2_name</t>
+  </si>
+  <si>
+    <t>risk_bucket_6_factor_3_name</t>
+  </si>
+  <si>
+    <t>risk_bucket_6_factor_1_rules</t>
+  </si>
+  <si>
+    <t>risk_bucket_6_factor_2_rules</t>
+  </si>
+  <si>
+    <t>risk_bucket_6_factor_3_rules</t>
+  </si>
+  <si>
+    <t>Model 54</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -631,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -651,7 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
@@ -686,44 +772,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -751,14 +837,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -786,6 +889,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -847,13 +967,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -862,6 +975,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -926,23 +1046,43 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59439DA-093F-410D-8D2C-D0873CC92F26}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,12 +1239,24 @@
       <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="BC1" s="1"/>
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
@@ -1122,1355 +1274,2253 @@
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>706</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G2">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="H2" s="2">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="I2">
-        <v>425797</v>
+        <v>431921</v>
       </c>
       <c r="J2">
-        <v>383616</v>
+        <v>429842</v>
       </c>
       <c r="K2">
-        <v>118141</v>
+        <v>335666</v>
       </c>
       <c r="L2">
-        <v>265613</v>
+        <v>494438</v>
+      </c>
+      <c r="M2">
+        <v>464387</v>
+      </c>
+      <c r="N2">
+        <v>190747</v>
+      </c>
+      <c r="O2">
+        <v>378047</v>
       </c>
       <c r="S2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T2">
-        <v>0.40584781813497478</v>
+        <v>0.27683727739091402</v>
       </c>
       <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>0.71031082234739962</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>1.2851900261686346E-2</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0.33302969797993554</v>
+      </c>
+      <c r="AA2">
+        <v>10</v>
+      </c>
+      <c r="AB2">
+        <v>0.35656757424403657</v>
+      </c>
+      <c r="AC2">
+        <v>7</v>
+      </c>
+      <c r="AD2">
+        <v>0.3104027277760279</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>3.4306045746624367E-2</v>
+      </c>
+      <c r="AG2">
+        <v>6</v>
+      </c>
+      <c r="AH2">
+        <v>0.31318547347197151</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>0.65250848078140411</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>0.37182098487750048</v>
+      </c>
+      <c r="AM2">
         <v>8</v>
       </c>
-      <c r="V2">
-        <v>0.42222291630343944</v>
-      </c>
-      <c r="W2">
-        <v>4</v>
-      </c>
-      <c r="X2">
-        <v>0.17192926556158578</v>
-      </c>
-      <c r="Y2">
-        <v>10</v>
-      </c>
-      <c r="Z2">
-        <v>0.14445645084863173</v>
-      </c>
-      <c r="AA2">
-        <v>9</v>
-      </c>
-      <c r="AB2">
-        <v>0.42911618395301698</v>
-      </c>
-      <c r="AC2">
+      <c r="AN2">
+        <v>0.17570157795058389</v>
+      </c>
+      <c r="AO2">
+        <v>3</v>
+      </c>
+      <c r="AP2">
+        <v>0.45247743717191563</v>
+      </c>
+      <c r="AQ2">
         <v>0</v>
       </c>
-      <c r="AD2">
-        <v>0.42642736519835128</v>
-      </c>
-      <c r="AE2">
-        <v>10</v>
-      </c>
-      <c r="AF2">
-        <v>0.23697134277739437</v>
-      </c>
-      <c r="AG2">
-        <v>4</v>
-      </c>
-      <c r="AH2">
-        <v>0.3966233774577963</v>
-      </c>
-      <c r="AI2">
-        <v>5</v>
-      </c>
-      <c r="AJ2">
-        <v>0.3664052797648093</v>
-      </c>
-      <c r="AK2">
-        <v>8</v>
-      </c>
-      <c r="AL2">
-        <v>0.11927856240968156</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0.36546849610728721</v>
-      </c>
-      <c r="AO2">
-        <v>6</v>
-      </c>
-      <c r="AP2">
-        <v>0.51525294148303125</v>
-      </c>
-      <c r="AQ2">
-        <v>5</v>
-      </c>
       <c r="AR2">
-        <v>0.275886107437114</v>
+        <v>0.46421668939525035</v>
       </c>
       <c r="AS2">
         <v>3</v>
       </c>
       <c r="AT2">
-        <v>0.60380990132115586</v>
+        <v>2.9957215227251439E-2</v>
       </c>
       <c r="AU2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV2">
-        <v>0.12030399124173013</v>
+        <v>0.50582609537749823</v>
+      </c>
+      <c r="AW2">
+        <v>3</v>
+      </c>
+      <c r="AX2">
+        <v>0.2198182064178773</v>
+      </c>
+      <c r="AY2">
+        <v>10</v>
+      </c>
+      <c r="AZ2">
+        <v>0.31694977034378047</v>
+      </c>
+      <c r="BA2">
+        <v>10</v>
+      </c>
+      <c r="BB2">
+        <v>0.46323202323834217</v>
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>648</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3">
+        <v>2017</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45440</v>
+      </c>
+      <c r="I3">
+        <v>230483</v>
+      </c>
+      <c r="J3">
+        <v>353272</v>
+      </c>
+      <c r="K3">
+        <v>183025</v>
+      </c>
+      <c r="L3">
+        <v>174406</v>
+      </c>
+      <c r="M3">
+        <v>333344</v>
+      </c>
+      <c r="N3">
+        <v>132286</v>
+      </c>
+      <c r="O3">
+        <v>283189</v>
+      </c>
+      <c r="S3">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3">
-        <v>2022</v>
-      </c>
-      <c r="H3" s="2">
-        <v>45439</v>
-      </c>
-      <c r="I3">
-        <v>190747</v>
-      </c>
-      <c r="J3">
-        <v>378047</v>
-      </c>
-      <c r="K3">
-        <v>492002</v>
-      </c>
-      <c r="L3">
-        <v>197573</v>
-      </c>
-      <c r="M3">
-        <v>313550</v>
-      </c>
-      <c r="N3">
-        <v>142548</v>
-      </c>
-      <c r="O3">
-        <v>499767</v>
-      </c>
-      <c r="P3">
-        <v>370471</v>
-      </c>
-      <c r="Q3">
-        <v>106282</v>
-      </c>
-      <c r="S3">
-        <v>6</v>
-      </c>
       <c r="T3">
-        <v>0.40584781813497478</v>
+        <v>0.27683727739091402</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>0.42222291630343944</v>
+        <v>0.71031082234739962</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X3">
-        <v>0.17192926556158578</v>
+        <v>1.2851900261686346E-2</v>
       </c>
       <c r="Y3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z3">
-        <v>0.14445645084863173</v>
+        <v>0.33302969797993554</v>
       </c>
       <c r="AA3">
         <v>3</v>
       </c>
       <c r="AB3">
-        <v>0.42911618395301698</v>
+        <v>0.35656757424403657</v>
       </c>
       <c r="AC3">
+        <v>10</v>
+      </c>
+      <c r="AD3">
+        <v>0.3104027277760279</v>
+      </c>
+      <c r="AE3">
+        <v>6</v>
+      </c>
+      <c r="AF3">
+        <v>3.4306045746624367E-2</v>
+      </c>
+      <c r="AG3">
+        <v>6</v>
+      </c>
+      <c r="AH3">
+        <v>0.31318547347197151</v>
+      </c>
+      <c r="AI3">
+        <v>4</v>
+      </c>
+      <c r="AJ3">
+        <v>0.65250848078140411</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>0.37182098487750048</v>
+      </c>
+      <c r="AM3">
+        <v>6</v>
+      </c>
+      <c r="AN3">
+        <v>0.17570157795058389</v>
+      </c>
+      <c r="AO3">
+        <v>7</v>
+      </c>
+      <c r="AP3">
+        <v>0.45247743717191563</v>
+      </c>
+      <c r="AQ3">
+        <v>10</v>
+      </c>
+      <c r="AR3">
+        <v>0.46421668939525035</v>
+      </c>
+      <c r="AS3">
+        <v>9</v>
+      </c>
+      <c r="AT3">
+        <v>2.9957215227251439E-2</v>
+      </c>
+      <c r="AU3">
         <v>0</v>
       </c>
-      <c r="AD3">
-        <v>0.42642736519835128</v>
-      </c>
-      <c r="AE3">
-        <v>3</v>
-      </c>
-      <c r="AF3">
-        <v>0.23697134277739437</v>
-      </c>
-      <c r="AG3">
+      <c r="AV3">
+        <v>0.50582609537749823</v>
+      </c>
+      <c r="AW3">
+        <v>5</v>
+      </c>
+      <c r="AX3">
+        <v>0.2198182064178773</v>
+      </c>
+      <c r="AY3">
+        <v>10</v>
+      </c>
+      <c r="AZ3">
+        <v>0.31694977034378047</v>
+      </c>
+      <c r="BA3">
         <v>4</v>
       </c>
-      <c r="AH3">
-        <v>0.3966233774577963</v>
-      </c>
-      <c r="AI3">
-        <v>3</v>
-      </c>
-      <c r="AJ3">
-        <v>0.3664052797648093</v>
-      </c>
-      <c r="AK3">
-        <v>10</v>
-      </c>
-      <c r="AL3">
-        <v>0.11927856240968156</v>
-      </c>
-      <c r="AM3">
-        <v>10</v>
-      </c>
-      <c r="AN3">
-        <v>0.36546849610728721</v>
-      </c>
-      <c r="AO3">
-        <v>4</v>
-      </c>
-      <c r="AP3">
-        <v>0.51525294148303125</v>
-      </c>
-      <c r="AQ3">
-        <v>3</v>
-      </c>
-      <c r="AR3">
-        <v>0.275886107437114</v>
-      </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <v>0.60380990132115586</v>
-      </c>
-      <c r="AU3">
-        <v>1</v>
-      </c>
-      <c r="AV3">
-        <v>0.12030399124173013</v>
+      <c r="BB3">
+        <v>0.46323202323834217</v>
       </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>647</v>
+        <v>678</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
       <c r="G4">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="H4" s="2">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="I4">
-        <v>333344</v>
+        <v>197538</v>
       </c>
       <c r="J4">
-        <v>132286</v>
+        <v>491632</v>
       </c>
       <c r="K4">
-        <v>283189</v>
+        <v>124367</v>
       </c>
       <c r="L4">
-        <v>462293</v>
+        <v>256117</v>
       </c>
       <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>0.27683727739091402</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>0.71031082234739962</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1.2851900261686346E-2</v>
+      </c>
+      <c r="Y4">
+        <v>5</v>
+      </c>
+      <c r="Z4">
+        <v>0.33302969797993554</v>
+      </c>
+      <c r="AA4">
         <v>2</v>
       </c>
-      <c r="T4">
-        <v>0.40584781813497478</v>
-      </c>
-      <c r="U4">
-        <v>8</v>
-      </c>
-      <c r="V4">
-        <v>0.42222291630343944</v>
-      </c>
-      <c r="W4">
-        <v>4</v>
-      </c>
-      <c r="X4">
-        <v>0.17192926556158578</v>
-      </c>
-      <c r="Y4">
-        <v>3</v>
-      </c>
-      <c r="Z4">
-        <v>0.14445645084863173</v>
-      </c>
-      <c r="AA4">
-        <v>10</v>
-      </c>
       <c r="AB4">
-        <v>0.42911618395301698</v>
+        <v>0.35656757424403657</v>
       </c>
       <c r="AC4">
         <v>6</v>
       </c>
       <c r="AD4">
-        <v>0.42642736519835128</v>
+        <v>0.3104027277760279</v>
       </c>
       <c r="AE4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF4">
-        <v>0.23697134277739437</v>
+        <v>3.4306045746624367E-2</v>
       </c>
       <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>0.31318547347197151</v>
+      </c>
+      <c r="AI4">
+        <v>10</v>
+      </c>
+      <c r="AJ4">
+        <v>0.65250848078140411</v>
+      </c>
+      <c r="AK4">
+        <v>7</v>
+      </c>
+      <c r="AL4">
+        <v>0.37182098487750048</v>
+      </c>
+      <c r="AM4">
+        <v>5</v>
+      </c>
+      <c r="AN4">
+        <v>0.17570157795058389</v>
+      </c>
+      <c r="AO4">
         <v>4</v>
       </c>
-      <c r="AH4">
-        <v>0.3966233774577963</v>
-      </c>
-      <c r="AI4">
+      <c r="AP4">
+        <v>0.45247743717191563</v>
+      </c>
+      <c r="AQ4">
         <v>1</v>
       </c>
-      <c r="AJ4">
-        <v>0.3664052797648093</v>
-      </c>
-      <c r="AK4">
-        <v>6</v>
-      </c>
-      <c r="AL4">
-        <v>0.11927856240968156</v>
-      </c>
-      <c r="AM4">
-        <v>7</v>
-      </c>
-      <c r="AN4">
-        <v>0.36546849610728721</v>
-      </c>
-      <c r="AO4">
-        <v>10</v>
-      </c>
-      <c r="AP4">
-        <v>0.51525294148303125</v>
-      </c>
-      <c r="AQ4">
-        <v>9</v>
-      </c>
       <c r="AR4">
-        <v>0.275886107437114</v>
+        <v>0.46421668939525035</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT4">
-        <v>0.60380990132115586</v>
+        <v>2.9957215227251439E-2</v>
       </c>
       <c r="AU4">
         <v>5</v>
       </c>
       <c r="AV4">
-        <v>0.12030399124173013</v>
+        <v>0.50582609537749823</v>
+      </c>
+      <c r="AW4">
+        <v>8</v>
+      </c>
+      <c r="AX4">
+        <v>0.2198182064178773</v>
+      </c>
+      <c r="AY4">
+        <v>6</v>
+      </c>
+      <c r="AZ4">
+        <v>0.31694977034378047</v>
+      </c>
+      <c r="BA4">
+        <v>9</v>
+      </c>
+      <c r="BB4">
+        <v>0.46323202323834217</v>
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>917</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5">
+        <v>2013</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45440</v>
+      </c>
+      <c r="I5">
+        <v>362823</v>
+      </c>
+      <c r="J5">
+        <v>317606</v>
+      </c>
+      <c r="K5">
+        <v>430966</v>
+      </c>
+      <c r="L5">
+        <v>132758</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>0.27683727739091402</v>
+      </c>
+      <c r="U5">
+        <v>7</v>
+      </c>
+      <c r="V5">
+        <v>0.71031082234739962</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <v>1.2851900261686346E-2</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>0.33302969797993554</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>0.35656757424403657</v>
+      </c>
+      <c r="AC5">
+        <v>7</v>
+      </c>
+      <c r="AD5">
+        <v>0.3104027277760279</v>
+      </c>
+      <c r="AE5">
+        <v>10</v>
+      </c>
+      <c r="AF5">
+        <v>3.4306045746624367E-2</v>
+      </c>
+      <c r="AG5">
+        <v>5</v>
+      </c>
+      <c r="AH5">
+        <v>0.31318547347197151</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0.65250848078140411</v>
+      </c>
+      <c r="AK5">
+        <v>8</v>
+      </c>
+      <c r="AL5">
+        <v>0.37182098487750048</v>
+      </c>
+      <c r="AM5">
+        <v>4</v>
+      </c>
+      <c r="AN5">
+        <v>0.17570157795058389</v>
+      </c>
+      <c r="AO5">
+        <v>5</v>
+      </c>
+      <c r="AP5">
+        <v>0.45247743717191563</v>
+      </c>
+      <c r="AQ5">
+        <v>5</v>
+      </c>
+      <c r="AR5">
+        <v>0.46421668939525035</v>
+      </c>
+      <c r="AS5">
+        <v>2</v>
+      </c>
+      <c r="AT5">
+        <v>2.9957215227251439E-2</v>
+      </c>
+      <c r="AU5">
+        <v>3</v>
+      </c>
+      <c r="AV5">
+        <v>0.50582609537749823</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>0.2198182064178773</v>
+      </c>
+      <c r="AY5">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5">
-        <v>2010</v>
-      </c>
-      <c r="H5" s="2">
-        <v>45439</v>
-      </c>
-      <c r="I5">
-        <v>207893</v>
-      </c>
-      <c r="J5">
-        <v>122237</v>
-      </c>
-      <c r="K5">
-        <v>197538</v>
-      </c>
-      <c r="L5">
-        <v>491632</v>
-      </c>
-      <c r="M5">
-        <v>124367</v>
-      </c>
-      <c r="N5">
-        <v>256117</v>
-      </c>
-      <c r="S5">
-        <v>4</v>
-      </c>
-      <c r="T5">
-        <v>0.40584781813497478</v>
-      </c>
-      <c r="U5">
-        <v>5</v>
-      </c>
-      <c r="V5">
-        <v>0.42222291630343944</v>
-      </c>
-      <c r="W5">
+      <c r="AZ5">
+        <v>0.31694977034378047</v>
+      </c>
+      <c r="BA5">
         <v>1</v>
       </c>
-      <c r="X5">
-        <v>0.17192926556158578</v>
-      </c>
-      <c r="Y5">
-        <v>5</v>
-      </c>
-      <c r="Z5">
-        <v>0.14445645084863173</v>
-      </c>
-      <c r="AA5">
-        <v>2</v>
-      </c>
-      <c r="AB5">
-        <v>0.42911618395301698</v>
-      </c>
-      <c r="AC5">
-        <v>6</v>
-      </c>
-      <c r="AD5">
-        <v>0.42642736519835128</v>
-      </c>
-      <c r="AE5">
-        <v>5</v>
-      </c>
-      <c r="AF5">
-        <v>0.23697134277739437</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>0.3966233774577963</v>
-      </c>
-      <c r="AI5">
-        <v>10</v>
-      </c>
-      <c r="AJ5">
-        <v>0.3664052797648093</v>
-      </c>
-      <c r="AK5">
-        <v>7</v>
-      </c>
-      <c r="AL5">
-        <v>0.11927856240968156</v>
-      </c>
-      <c r="AM5">
-        <v>5</v>
-      </c>
-      <c r="AN5">
-        <v>0.36546849610728721</v>
-      </c>
-      <c r="AO5">
-        <v>4</v>
-      </c>
-      <c r="AP5">
-        <v>0.51525294148303125</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>0.275886107437114</v>
-      </c>
-      <c r="AS5">
-        <v>8</v>
-      </c>
-      <c r="AT5">
-        <v>0.60380990132115586</v>
-      </c>
-      <c r="AU5">
-        <v>5</v>
-      </c>
-      <c r="AV5">
-        <v>0.12030399124173013</v>
+      <c r="BB5">
+        <v>0.46323202323834217</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>754</v>
+        <v>928</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6">
+        <v>2016</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45440</v>
+      </c>
+      <c r="I6">
+        <v>202652</v>
+      </c>
+      <c r="J6">
+        <v>135959</v>
+      </c>
+      <c r="K6">
+        <v>112380</v>
+      </c>
+      <c r="L6">
+        <v>229087</v>
+      </c>
+      <c r="M6">
+        <v>416052</v>
+      </c>
+      <c r="N6">
+        <v>218904</v>
+      </c>
+      <c r="O6">
+        <v>194113</v>
+      </c>
+      <c r="P6">
+        <v>292190</v>
+      </c>
+      <c r="Q6">
+        <v>201841</v>
+      </c>
+      <c r="S6">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6">
-        <v>2008</v>
-      </c>
-      <c r="H6" s="2">
-        <v>45439</v>
-      </c>
-      <c r="I6">
-        <v>151300</v>
-      </c>
-      <c r="J6">
-        <v>100096</v>
-      </c>
-      <c r="K6">
-        <v>314718</v>
-      </c>
-      <c r="S6">
-        <v>7</v>
-      </c>
       <c r="T6">
-        <v>0.40584781813497478</v>
+        <v>0.27683727739091402</v>
       </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0.71031082234739962</v>
+      </c>
+      <c r="W6">
         <v>5</v>
       </c>
-      <c r="V6">
-        <v>0.42222291630343944</v>
-      </c>
-      <c r="W6">
+      <c r="X6">
+        <v>1.2851900261686346E-2</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>0.33302969797993554</v>
+      </c>
+      <c r="AA6">
         <v>9</v>
       </c>
-      <c r="X6">
-        <v>0.17192926556158578</v>
-      </c>
-      <c r="Y6">
+      <c r="AB6">
+        <v>0.35656757424403657</v>
+      </c>
+      <c r="AC6">
+        <v>6</v>
+      </c>
+      <c r="AD6">
+        <v>0.3104027277760279</v>
+      </c>
+      <c r="AE6">
+        <v>8</v>
+      </c>
+      <c r="AF6">
+        <v>3.4306045746624367E-2</v>
+      </c>
+      <c r="AG6">
+        <v>10</v>
+      </c>
+      <c r="AH6">
+        <v>0.31318547347197151</v>
+      </c>
+      <c r="AI6">
+        <v>3</v>
+      </c>
+      <c r="AJ6">
+        <v>0.65250848078140411</v>
+      </c>
+      <c r="AK6">
+        <v>5</v>
+      </c>
+      <c r="AL6">
+        <v>0.37182098487750048</v>
+      </c>
+      <c r="AM6">
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>0.14445645084863173</v>
-      </c>
-      <c r="AA6">
-        <v>2</v>
-      </c>
-      <c r="AB6">
-        <v>0.42911618395301698</v>
-      </c>
-      <c r="AC6">
-        <v>7</v>
-      </c>
-      <c r="AD6">
-        <v>0.42642736519835128</v>
-      </c>
-      <c r="AE6">
+      <c r="AN6">
+        <v>0.17570157795058389</v>
+      </c>
+      <c r="AO6">
+        <v>6</v>
+      </c>
+      <c r="AP6">
+        <v>0.45247743717191563</v>
+      </c>
+      <c r="AQ6">
         <v>4</v>
       </c>
-      <c r="AF6">
-        <v>0.23697134277739437</v>
-      </c>
-      <c r="AG6">
+      <c r="AR6">
+        <v>0.46421668939525035</v>
+      </c>
+      <c r="AS6">
+        <v>10</v>
+      </c>
+      <c r="AT6">
+        <v>2.9957215227251439E-2</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>0.50582609537749823</v>
+      </c>
+      <c r="AW6">
+        <v>10</v>
+      </c>
+      <c r="AX6">
+        <v>0.2198182064178773</v>
+      </c>
+      <c r="AY6">
+        <v>6</v>
+      </c>
+      <c r="AZ6">
+        <v>0.31694977034378047</v>
+      </c>
+      <c r="BA6">
         <v>3</v>
       </c>
-      <c r="AH6">
-        <v>0.3966233774577963</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>0.3664052797648093</v>
-      </c>
-      <c r="AK6">
-        <v>7</v>
-      </c>
-      <c r="AL6">
-        <v>0.11927856240968156</v>
-      </c>
-      <c r="AM6">
-        <v>10</v>
-      </c>
-      <c r="AN6">
-        <v>0.36546849610728721</v>
-      </c>
-      <c r="AO6">
-        <v>5</v>
-      </c>
-      <c r="AP6">
-        <v>0.51525294148303125</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0.275886107437114</v>
-      </c>
-      <c r="AS6">
-        <v>8</v>
-      </c>
-      <c r="AT6">
-        <v>0.60380990132115586</v>
-      </c>
-      <c r="AU6">
-        <v>4</v>
-      </c>
-      <c r="AV6">
-        <v>0.12030399124173013</v>
+      <c r="BB6">
+        <v>0.46323202323834217</v>
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>462</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G7">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="H7" s="2">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="I7">
-        <v>139172</v>
+        <v>469183</v>
+      </c>
+      <c r="J7">
+        <v>315299</v>
       </c>
       <c r="S7">
         <v>4</v>
       </c>
       <c r="T7">
-        <v>0.40584781813497478</v>
+        <v>0.27683727739091402</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V7">
-        <v>0.42222291630343944</v>
+        <v>0.71031082234739962</v>
       </c>
       <c r="W7">
         <v>9</v>
       </c>
       <c r="X7">
-        <v>0.17192926556158578</v>
+        <v>1.2851900261686346E-2</v>
       </c>
       <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>0.33302969797993554</v>
+      </c>
+      <c r="AA7">
+        <v>7</v>
+      </c>
+      <c r="AB7">
+        <v>0.35656757424403657</v>
+      </c>
+      <c r="AC7">
+        <v>10</v>
+      </c>
+      <c r="AD7">
+        <v>0.3104027277760279</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AF7">
+        <v>3.4306045746624367E-2</v>
+      </c>
+      <c r="AG7">
+        <v>5</v>
+      </c>
+      <c r="AH7">
+        <v>0.31318547347197151</v>
+      </c>
+      <c r="AI7">
+        <v>4</v>
+      </c>
+      <c r="AJ7">
+        <v>0.65250848078140411</v>
+      </c>
+      <c r="AK7">
+        <v>7</v>
+      </c>
+      <c r="AL7">
+        <v>0.37182098487750048</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>0.17570157795058389</v>
+      </c>
+      <c r="AO7">
+        <v>4</v>
+      </c>
+      <c r="AP7">
+        <v>0.45247743717191563</v>
+      </c>
+      <c r="AQ7">
+        <v>5</v>
+      </c>
+      <c r="AR7">
+        <v>0.46421668939525035</v>
+      </c>
+      <c r="AS7">
         <v>8</v>
       </c>
-      <c r="Z7">
-        <v>0.14445645084863173</v>
-      </c>
-      <c r="AA7">
-        <v>3</v>
-      </c>
-      <c r="AB7">
-        <v>0.42911618395301698</v>
-      </c>
-      <c r="AC7">
-        <v>7</v>
-      </c>
-      <c r="AD7">
-        <v>0.42642736519835128</v>
-      </c>
-      <c r="AE7">
+      <c r="AT7">
+        <v>2.9957215227251439E-2</v>
+      </c>
+      <c r="AU7">
+        <v>5</v>
+      </c>
+      <c r="AV7">
+        <v>0.50582609537749823</v>
+      </c>
+      <c r="AW7">
+        <v>4</v>
+      </c>
+      <c r="AX7">
+        <v>0.2198182064178773</v>
+      </c>
+      <c r="AY7">
+        <v>5</v>
+      </c>
+      <c r="AZ7">
+        <v>0.31694977034378047</v>
+      </c>
+      <c r="BA7">
         <v>2</v>
       </c>
-      <c r="AF7">
-        <v>0.23697134277739437</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0.3966233774577963</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0.3664052797648093</v>
-      </c>
-      <c r="AK7">
-        <v>3</v>
-      </c>
-      <c r="AL7">
-        <v>0.11927856240968156</v>
-      </c>
-      <c r="AM7">
-        <v>8</v>
-      </c>
-      <c r="AN7">
-        <v>0.36546849610728721</v>
-      </c>
-      <c r="AO7">
-        <v>3</v>
-      </c>
-      <c r="AP7">
-        <v>0.51525294148303125</v>
-      </c>
-      <c r="AQ7">
-        <v>2</v>
-      </c>
-      <c r="AR7">
-        <v>0.275886107437114</v>
-      </c>
-      <c r="AS7">
-        <v>5</v>
-      </c>
-      <c r="AT7">
-        <v>0.60380990132115586</v>
-      </c>
-      <c r="AU7">
-        <v>2</v>
-      </c>
-      <c r="AV7">
-        <v>0.12030399124173013</v>
+      <c r="BB7">
+        <v>0.46323202323834217</v>
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>341</v>
+        <v>620</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>2003</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45440</v>
+      </c>
+      <c r="I8">
+        <v>311929</v>
+      </c>
+      <c r="J8">
+        <v>189305</v>
+      </c>
+      <c r="K8">
+        <v>333812</v>
+      </c>
+      <c r="L8">
+        <v>245384</v>
+      </c>
+      <c r="S8">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8">
-        <v>2023</v>
-      </c>
-      <c r="H8" s="2">
-        <v>45439</v>
-      </c>
-      <c r="I8">
-        <v>232407</v>
-      </c>
-      <c r="J8">
-        <v>317177</v>
-      </c>
-      <c r="K8">
-        <v>132277</v>
-      </c>
-      <c r="L8">
-        <v>353749</v>
-      </c>
-      <c r="M8">
-        <v>264015</v>
-      </c>
-      <c r="N8">
-        <v>484170</v>
-      </c>
-      <c r="O8">
-        <v>145849</v>
-      </c>
-      <c r="P8">
-        <v>469379</v>
-      </c>
-      <c r="Q8">
-        <v>348084</v>
-      </c>
-      <c r="S8">
-        <v>3</v>
-      </c>
       <c r="T8">
-        <v>0.40584781813497478</v>
+        <v>0.27683727739091402</v>
       </c>
       <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>0.71031082234739962</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>1.2851900261686346E-2</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>0.33302969797993554</v>
+      </c>
+      <c r="AA8">
+        <v>8</v>
+      </c>
+      <c r="AB8">
+        <v>0.35656757424403657</v>
+      </c>
+      <c r="AC8">
+        <v>6</v>
+      </c>
+      <c r="AD8">
+        <v>0.3104027277760279</v>
+      </c>
+      <c r="AE8">
+        <v>8</v>
+      </c>
+      <c r="AF8">
+        <v>3.4306045746624367E-2</v>
+      </c>
+      <c r="AG8">
         <v>1</v>
       </c>
-      <c r="V8">
-        <v>0.42222291630343944</v>
-      </c>
-      <c r="W8">
+      <c r="AH8">
+        <v>0.31318547347197151</v>
+      </c>
+      <c r="AI8">
+        <v>8</v>
+      </c>
+      <c r="AJ8">
+        <v>0.65250848078140411</v>
+      </c>
+      <c r="AK8">
+        <v>2</v>
+      </c>
+      <c r="AL8">
+        <v>0.37182098487750048</v>
+      </c>
+      <c r="AM8">
+        <v>10</v>
+      </c>
+      <c r="AN8">
+        <v>0.17570157795058389</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0.45247743717191563</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0.46421668939525035</v>
+      </c>
+      <c r="AS8">
+        <v>8</v>
+      </c>
+      <c r="AT8">
+        <v>2.9957215227251439E-2</v>
+      </c>
+      <c r="AU8">
+        <v>4</v>
+      </c>
+      <c r="AV8">
+        <v>0.50582609537749823</v>
+      </c>
+      <c r="AW8">
         <v>5</v>
       </c>
-      <c r="X8">
-        <v>0.17192926556158578</v>
-      </c>
-      <c r="Y8">
-        <v>2</v>
-      </c>
-      <c r="Z8">
-        <v>0.14445645084863173</v>
-      </c>
-      <c r="AA8">
-        <v>10</v>
-      </c>
-      <c r="AB8">
-        <v>0.42911618395301698</v>
-      </c>
-      <c r="AC8">
+      <c r="AX8">
+        <v>0.2198182064178773</v>
+      </c>
+      <c r="AY8">
         <v>1</v>
       </c>
-      <c r="AD8">
-        <v>0.42642736519835128</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0.23697134277739437</v>
-      </c>
-      <c r="AG8">
-        <v>3</v>
-      </c>
-      <c r="AH8">
-        <v>0.3966233774577963</v>
-      </c>
-      <c r="AI8">
-        <v>6</v>
-      </c>
-      <c r="AJ8">
-        <v>0.3664052797648093</v>
-      </c>
-      <c r="AK8">
-        <v>10</v>
-      </c>
-      <c r="AL8">
-        <v>0.11927856240968156</v>
-      </c>
-      <c r="AM8">
-        <v>5</v>
-      </c>
-      <c r="AN8">
-        <v>0.36546849610728721</v>
-      </c>
-      <c r="AO8">
-        <v>4</v>
-      </c>
-      <c r="AP8">
-        <v>0.51525294148303125</v>
-      </c>
-      <c r="AQ8">
-        <v>9</v>
-      </c>
-      <c r="AR8">
-        <v>0.275886107437114</v>
-      </c>
-      <c r="AS8">
-        <v>9</v>
-      </c>
-      <c r="AT8">
-        <v>0.60380990132115586</v>
-      </c>
-      <c r="AU8">
-        <v>7</v>
-      </c>
-      <c r="AV8">
-        <v>0.12030399124173013</v>
+      <c r="AZ8">
+        <v>0.31694977034378047</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>0.46323202323834217</v>
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>722</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G9">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="H9" s="2">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="I9">
-        <v>317271</v>
+        <v>400925</v>
       </c>
       <c r="J9">
-        <v>425866</v>
+        <v>259573</v>
       </c>
       <c r="K9">
-        <v>316366</v>
+        <v>461240</v>
       </c>
       <c r="L9">
-        <v>271014</v>
+        <v>398404</v>
       </c>
       <c r="M9">
-        <v>303628</v>
+        <v>135424</v>
+      </c>
+      <c r="N9">
+        <v>353829</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T9">
-        <v>0.40584781813497478</v>
+        <v>0.27683727739091402</v>
       </c>
       <c r="U9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.42222291630343944</v>
+        <v>0.71031082234739962</v>
       </c>
       <c r="W9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X9">
-        <v>0.17192926556158578</v>
+        <v>1.2851900261686346E-2</v>
       </c>
       <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>0.33302969797993554</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>0.35656757424403657</v>
+      </c>
+      <c r="AC9">
+        <v>10</v>
+      </c>
+      <c r="AD9">
+        <v>0.3104027277760279</v>
+      </c>
+      <c r="AE9">
+        <v>8</v>
+      </c>
+      <c r="AF9">
+        <v>3.4306045746624367E-2</v>
+      </c>
+      <c r="AG9">
         <v>7</v>
       </c>
-      <c r="Z9">
-        <v>0.14445645084863173</v>
-      </c>
-      <c r="AA9">
-        <v>9</v>
-      </c>
-      <c r="AB9">
-        <v>0.42911618395301698</v>
-      </c>
-      <c r="AC9">
+      <c r="AH9">
+        <v>0.31318547347197151</v>
+      </c>
+      <c r="AI9">
         <v>4</v>
       </c>
-      <c r="AD9">
-        <v>0.42642736519835128</v>
-      </c>
-      <c r="AE9">
+      <c r="AJ9">
+        <v>0.65250848078140411</v>
+      </c>
+      <c r="AK9">
+        <v>8</v>
+      </c>
+      <c r="AL9">
+        <v>0.37182098487750048</v>
+      </c>
+      <c r="AM9">
         <v>3</v>
       </c>
-      <c r="AF9">
-        <v>0.23697134277739437</v>
-      </c>
-      <c r="AG9">
+      <c r="AN9">
+        <v>0.17570157795058389</v>
+      </c>
+      <c r="AO9">
         <v>3</v>
       </c>
-      <c r="AH9">
-        <v>0.3966233774577963</v>
-      </c>
-      <c r="AI9">
+      <c r="AP9">
+        <v>0.45247743717191563</v>
+      </c>
+      <c r="AQ9">
+        <v>4</v>
+      </c>
+      <c r="AR9">
+        <v>0.46421668939525035</v>
+      </c>
+      <c r="AS9">
+        <v>10</v>
+      </c>
+      <c r="AT9">
+        <v>2.9957215227251439E-2</v>
+      </c>
+      <c r="AU9">
         <v>1</v>
       </c>
-      <c r="AJ9">
-        <v>0.3664052797648093</v>
-      </c>
-      <c r="AK9">
-        <v>5</v>
-      </c>
-      <c r="AL9">
-        <v>0.11927856240968156</v>
-      </c>
-      <c r="AM9">
-        <v>2</v>
-      </c>
-      <c r="AN9">
-        <v>0.36546849610728721</v>
-      </c>
-      <c r="AO9">
-        <v>6</v>
-      </c>
-      <c r="AP9">
-        <v>0.51525294148303125</v>
-      </c>
-      <c r="AQ9">
+      <c r="AV9">
+        <v>0.50582609537749823</v>
+      </c>
+      <c r="AW9">
+        <v>7</v>
+      </c>
+      <c r="AX9">
+        <v>0.2198182064178773</v>
+      </c>
+      <c r="AY9">
         <v>3</v>
       </c>
-      <c r="AR9">
-        <v>0.275886107437114</v>
-      </c>
-      <c r="AS9">
-        <v>9</v>
-      </c>
-      <c r="AT9">
-        <v>0.60380990132115586</v>
-      </c>
-      <c r="AU9">
-        <v>5</v>
-      </c>
-      <c r="AV9">
-        <v>0.12030399124173013</v>
+      <c r="AZ9">
+        <v>0.31694977034378047</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>0.46323202323834217</v>
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G10">
         <v>2005</v>
       </c>
       <c r="H10" s="2">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="I10">
-        <v>482706</v>
+        <v>251597</v>
       </c>
       <c r="J10">
-        <v>126340</v>
+        <v>258338</v>
       </c>
       <c r="K10">
-        <v>124609</v>
+        <v>212602</v>
       </c>
       <c r="L10">
-        <v>417280</v>
+        <v>301349</v>
       </c>
       <c r="M10">
-        <v>251842</v>
+        <v>155493</v>
       </c>
       <c r="N10">
-        <v>285434</v>
-      </c>
-      <c r="O10">
-        <v>147818</v>
-      </c>
-      <c r="P10">
-        <v>146188</v>
+        <v>306903</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T10">
-        <v>0.40584781813497478</v>
+        <v>0.27683727739091402</v>
       </c>
       <c r="U10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>0.71031082234739962</v>
+      </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
+        <v>1.2851900261686346E-2</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>0.33302969797993554</v>
+      </c>
+      <c r="AA10">
+        <v>4</v>
+      </c>
+      <c r="AB10">
+        <v>0.35656757424403657</v>
+      </c>
+      <c r="AC10">
+        <v>7</v>
+      </c>
+      <c r="AD10">
+        <v>0.3104027277760279</v>
+      </c>
+      <c r="AE10">
         <v>0</v>
       </c>
-      <c r="V10">
-        <v>0.42222291630343944</v>
-      </c>
-      <c r="W10">
-        <v>7</v>
-      </c>
-      <c r="X10">
-        <v>0.17192926556158578</v>
-      </c>
-      <c r="Y10">
-        <v>5</v>
-      </c>
-      <c r="Z10">
-        <v>0.14445645084863173</v>
-      </c>
-      <c r="AA10">
-        <v>6</v>
-      </c>
-      <c r="AB10">
-        <v>0.42911618395301698</v>
-      </c>
-      <c r="AC10">
-        <v>2</v>
-      </c>
-      <c r="AD10">
-        <v>0.42642736519835128</v>
-      </c>
-      <c r="AE10">
-        <v>5</v>
-      </c>
       <c r="AF10">
-        <v>0.23697134277739437</v>
+        <v>3.4306045746624367E-2</v>
       </c>
       <c r="AG10">
         <v>8</v>
       </c>
       <c r="AH10">
-        <v>0.3966233774577963</v>
+        <v>0.31318547347197151</v>
       </c>
       <c r="AI10">
+        <v>7</v>
+      </c>
+      <c r="AJ10">
+        <v>0.65250848078140411</v>
+      </c>
+      <c r="AK10">
+        <v>5</v>
+      </c>
+      <c r="AL10">
+        <v>0.37182098487750048</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>0.17570157795058389</v>
+      </c>
+      <c r="AO10">
+        <v>2</v>
+      </c>
+      <c r="AP10">
+        <v>0.45247743717191563</v>
+      </c>
+      <c r="AQ10">
+        <v>3</v>
+      </c>
+      <c r="AR10">
+        <v>0.46421668939525035</v>
+      </c>
+      <c r="AS10">
         <v>8</v>
       </c>
-      <c r="AJ10">
-        <v>0.3664052797648093</v>
-      </c>
-      <c r="AK10">
-        <v>4</v>
-      </c>
-      <c r="AL10">
-        <v>0.11927856240968156</v>
-      </c>
-      <c r="AM10">
-        <v>9</v>
-      </c>
-      <c r="AN10">
-        <v>0.36546849610728721</v>
-      </c>
-      <c r="AO10">
+      <c r="AT10">
+        <v>2.9957215227251439E-2</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0.50582609537749823</v>
+      </c>
+      <c r="AW10">
+        <v>5</v>
+      </c>
+      <c r="AX10">
+        <v>0.2198182064178773</v>
+      </c>
+      <c r="AY10">
         <v>8</v>
       </c>
-      <c r="AP10">
-        <v>0.51525294148303125</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0.275886107437114</v>
-      </c>
-      <c r="AS10">
-        <v>6</v>
-      </c>
-      <c r="AT10">
-        <v>0.60380990132115586</v>
-      </c>
-      <c r="AU10">
-        <v>7</v>
-      </c>
-      <c r="AV10">
-        <v>0.12030399124173013</v>
+      <c r="AZ10">
+        <v>0.31694977034378047</v>
+      </c>
+      <c r="BA10">
+        <v>8</v>
+      </c>
+      <c r="BB10">
+        <v>0.46323202323834217</v>
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G11">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="H11" s="2">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="I11">
-        <v>393796</v>
+        <v>481664</v>
       </c>
       <c r="J11">
-        <v>210868</v>
+        <v>418920</v>
       </c>
       <c r="K11">
-        <v>242635</v>
+        <v>378515</v>
       </c>
       <c r="L11">
-        <v>273383</v>
+        <v>260642</v>
       </c>
       <c r="M11">
-        <v>477989</v>
+        <v>106519</v>
       </c>
       <c r="N11">
-        <v>148620</v>
+        <v>167105</v>
       </c>
       <c r="O11">
-        <v>358381</v>
+        <v>165694</v>
       </c>
       <c r="P11">
-        <v>239133</v>
+        <v>303889</v>
       </c>
       <c r="Q11">
-        <v>141773</v>
+        <v>262425</v>
       </c>
       <c r="R11">
-        <v>174161</v>
+        <v>142454</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>0.40584781813497478</v>
+        <v>0.27683727739091402</v>
       </c>
       <c r="U11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V11">
-        <v>0.42222291630343944</v>
+        <v>0.71031082234739962</v>
       </c>
       <c r="W11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X11">
-        <v>0.17192926556158578</v>
+        <v>1.2851900261686346E-2</v>
       </c>
       <c r="Y11">
         <v>5</v>
       </c>
       <c r="Z11">
-        <v>0.14445645084863173</v>
+        <v>0.33302969797993554</v>
       </c>
       <c r="AA11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB11">
-        <v>0.42911618395301698</v>
+        <v>0.35656757424403657</v>
       </c>
       <c r="AC11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD11">
-        <v>0.42642736519835128</v>
+        <v>0.3104027277760279</v>
       </c>
       <c r="AE11">
+        <v>4</v>
+      </c>
+      <c r="AF11">
+        <v>3.4306045746624367E-2</v>
+      </c>
+      <c r="AG11">
+        <v>3</v>
+      </c>
+      <c r="AH11">
+        <v>0.31318547347197151</v>
+      </c>
+      <c r="AI11">
+        <v>8</v>
+      </c>
+      <c r="AJ11">
+        <v>0.65250848078140411</v>
+      </c>
+      <c r="AK11">
         <v>2</v>
       </c>
-      <c r="AF11">
-        <v>0.23697134277739437</v>
-      </c>
-      <c r="AG11">
+      <c r="AL11">
+        <v>0.37182098487750048</v>
+      </c>
+      <c r="AM11">
         <v>4</v>
       </c>
-      <c r="AH11">
-        <v>0.3966233774577963</v>
-      </c>
-      <c r="AI11">
+      <c r="AN11">
+        <v>0.17570157795058389</v>
+      </c>
+      <c r="AO11">
+        <v>2</v>
+      </c>
+      <c r="AP11">
+        <v>0.45247743717191563</v>
+      </c>
+      <c r="AQ11">
+        <v>9</v>
+      </c>
+      <c r="AR11">
+        <v>0.46421668939525035</v>
+      </c>
+      <c r="AS11">
+        <v>6</v>
+      </c>
+      <c r="AT11">
+        <v>2.9957215227251439E-2</v>
+      </c>
+      <c r="AU11">
         <v>4</v>
       </c>
-      <c r="AJ11">
-        <v>0.3664052797648093</v>
-      </c>
-      <c r="AK11">
-        <v>3</v>
-      </c>
-      <c r="AL11">
-        <v>0.11927856240968156</v>
-      </c>
-      <c r="AM11">
-        <v>5</v>
-      </c>
-      <c r="AN11">
-        <v>0.36546849610728721</v>
-      </c>
-      <c r="AO11">
-        <v>1</v>
-      </c>
-      <c r="AP11">
-        <v>0.51525294148303125</v>
-      </c>
-      <c r="AQ11">
-        <v>5</v>
-      </c>
-      <c r="AR11">
-        <v>0.275886107437114</v>
-      </c>
-      <c r="AS11">
-        <v>10</v>
-      </c>
-      <c r="AT11">
-        <v>0.60380990132115586</v>
-      </c>
-      <c r="AU11">
+      <c r="AV11">
+        <v>0.50582609537749823</v>
+      </c>
+      <c r="AW11">
+        <v>4</v>
+      </c>
+      <c r="AX11">
+        <v>0.2198182064178773</v>
+      </c>
+      <c r="AY11">
+        <v>9</v>
+      </c>
+      <c r="AZ11">
+        <v>0.31694977034378047</v>
+      </c>
+      <c r="BA11">
         <v>6</v>
       </c>
-      <c r="AV11">
-        <v>0.12030399124173013</v>
+      <c r="BB11">
+        <v>0.46323202323834217</v>
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="H12" s="2"/>
+      <c r="A12">
+        <v>932</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12">
+        <v>2008</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45440</v>
+      </c>
+      <c r="I12">
+        <v>101002</v>
+      </c>
+      <c r="J12">
+        <v>396938</v>
+      </c>
+      <c r="K12">
+        <v>436356</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>0.27683727739091402</v>
+      </c>
+      <c r="U12">
+        <v>7</v>
+      </c>
+      <c r="V12">
+        <v>0.71031082234739962</v>
+      </c>
+      <c r="W12">
+        <v>4</v>
+      </c>
+      <c r="X12">
+        <v>1.2851900261686346E-2</v>
+      </c>
+      <c r="Y12">
+        <v>8</v>
+      </c>
+      <c r="Z12">
+        <v>0.33302969797993554</v>
+      </c>
+      <c r="AA12">
+        <v>8</v>
+      </c>
+      <c r="AB12">
+        <v>0.35656757424403657</v>
+      </c>
+      <c r="AC12">
+        <v>4</v>
+      </c>
+      <c r="AD12">
+        <v>0.3104027277760279</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>3.4306045746624367E-2</v>
+      </c>
+      <c r="AG12">
+        <v>4</v>
+      </c>
+      <c r="AH12">
+        <v>0.31318547347197151</v>
+      </c>
+      <c r="AI12">
+        <v>3</v>
+      </c>
+      <c r="AJ12">
+        <v>0.65250848078140411</v>
+      </c>
+      <c r="AK12">
+        <v>7</v>
+      </c>
+      <c r="AL12">
+        <v>0.37182098487750048</v>
+      </c>
+      <c r="AM12">
+        <v>3</v>
+      </c>
+      <c r="AN12">
+        <v>0.17570157795058389</v>
+      </c>
+      <c r="AO12">
+        <v>8</v>
+      </c>
+      <c r="AP12">
+        <v>0.45247743717191563</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>0.46421668939525035</v>
+      </c>
+      <c r="AS12">
+        <v>6</v>
+      </c>
+      <c r="AT12">
+        <v>2.9957215227251439E-2</v>
+      </c>
+      <c r="AU12">
+        <v>10</v>
+      </c>
+      <c r="AV12">
+        <v>0.50582609537749823</v>
+      </c>
+      <c r="AW12">
+        <v>2</v>
+      </c>
+      <c r="AX12">
+        <v>0.2198182064178773</v>
+      </c>
+      <c r="AY12">
+        <v>10</v>
+      </c>
+      <c r="AZ12">
+        <v>0.31694977034378047</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>0.46323202323834217</v>
+      </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="H13" s="2"/>
+      <c r="A13">
+        <v>985</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13">
+        <v>2001</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45440</v>
+      </c>
+      <c r="I13">
+        <v>275531</v>
+      </c>
+      <c r="J13">
+        <v>403992</v>
+      </c>
+      <c r="K13">
+        <v>198272</v>
+      </c>
+      <c r="L13">
+        <v>251443</v>
+      </c>
+      <c r="M13">
+        <v>258898</v>
+      </c>
+      <c r="N13">
+        <v>310630</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>0.27683727739091402</v>
+      </c>
+      <c r="U13">
+        <v>6</v>
+      </c>
+      <c r="V13">
+        <v>0.71031082234739962</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <v>1.2851900261686346E-2</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0.33302969797993554</v>
+      </c>
+      <c r="AA13">
+        <v>9</v>
+      </c>
+      <c r="AB13">
+        <v>0.35656757424403657</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>0.3104027277760279</v>
+      </c>
+      <c r="AE13">
+        <v>7</v>
+      </c>
+      <c r="AF13">
+        <v>3.4306045746624367E-2</v>
+      </c>
+      <c r="AG13">
+        <v>9</v>
+      </c>
+      <c r="AH13">
+        <v>0.31318547347197151</v>
+      </c>
+      <c r="AI13">
+        <v>2</v>
+      </c>
+      <c r="AJ13">
+        <v>0.65250848078140411</v>
+      </c>
+      <c r="AK13">
+        <v>10</v>
+      </c>
+      <c r="AL13">
+        <v>0.37182098487750048</v>
+      </c>
+      <c r="AM13">
+        <v>9</v>
+      </c>
+      <c r="AN13">
+        <v>0.17570157795058389</v>
+      </c>
+      <c r="AO13">
+        <v>4</v>
+      </c>
+      <c r="AP13">
+        <v>0.45247743717191563</v>
+      </c>
+      <c r="AQ13">
+        <v>5</v>
+      </c>
+      <c r="AR13">
+        <v>0.46421668939525035</v>
+      </c>
+      <c r="AS13">
+        <v>8</v>
+      </c>
+      <c r="AT13">
+        <v>2.9957215227251439E-2</v>
+      </c>
+      <c r="AU13">
+        <v>9</v>
+      </c>
+      <c r="AV13">
+        <v>0.50582609537749823</v>
+      </c>
+      <c r="AW13">
+        <v>4</v>
+      </c>
+      <c r="AX13">
+        <v>0.2198182064178773</v>
+      </c>
+      <c r="AY13">
+        <v>2</v>
+      </c>
+      <c r="AZ13">
+        <v>0.31694977034378047</v>
+      </c>
+      <c r="BA13">
+        <v>3</v>
+      </c>
+      <c r="BB13">
+        <v>0.46323202323834217</v>
+      </c>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="H14" s="2"/>
+      <c r="A14">
+        <v>414</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>2004</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45440</v>
+      </c>
+      <c r="I14">
+        <v>496562</v>
+      </c>
+      <c r="J14">
+        <v>288557</v>
+      </c>
+      <c r="K14">
+        <v>101608</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>0.27683727739091402</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>0.71031082234739962</v>
+      </c>
+      <c r="W14">
+        <v>8</v>
+      </c>
+      <c r="X14">
+        <v>1.2851900261686346E-2</v>
+      </c>
+      <c r="Y14">
+        <v>9</v>
+      </c>
+      <c r="Z14">
+        <v>0.33302969797993554</v>
+      </c>
+      <c r="AA14">
+        <v>9</v>
+      </c>
+      <c r="AB14">
+        <v>0.35656757424403657</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>0.3104027277760279</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>3.4306045746624367E-2</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0.31318547347197151</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>0.65250848078140411</v>
+      </c>
+      <c r="AK14">
+        <v>4</v>
+      </c>
+      <c r="AL14">
+        <v>0.37182098487750048</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <v>0.17570157795058389</v>
+      </c>
+      <c r="AO14">
+        <v>10</v>
+      </c>
+      <c r="AP14">
+        <v>0.45247743717191563</v>
+      </c>
+      <c r="AQ14">
+        <v>9</v>
+      </c>
+      <c r="AR14">
+        <v>0.46421668939525035</v>
+      </c>
+      <c r="AS14">
+        <v>6</v>
+      </c>
+      <c r="AT14">
+        <v>2.9957215227251439E-2</v>
+      </c>
+      <c r="AU14">
+        <v>8</v>
+      </c>
+      <c r="AV14">
+        <v>0.50582609537749823</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>0.2198182064178773</v>
+      </c>
+      <c r="AY14">
+        <v>2</v>
+      </c>
+      <c r="AZ14">
+        <v>0.31694977034378047</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0.46323202323834217</v>
+      </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="H15" s="2"/>
+      <c r="A15">
+        <v>828</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15">
+        <v>2014</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45440</v>
+      </c>
+      <c r="I15">
+        <v>181433</v>
+      </c>
+      <c r="J15">
+        <v>183038</v>
+      </c>
+      <c r="K15">
+        <v>245876</v>
+      </c>
+      <c r="L15">
+        <v>329408</v>
+      </c>
+      <c r="M15">
+        <v>237673</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>0.27683727739091402</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>0.71031082234739962</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>1.2851900261686346E-2</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0.33302969797993554</v>
+      </c>
+      <c r="AA15">
+        <v>6</v>
+      </c>
+      <c r="AB15">
+        <v>0.35656757424403657</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>0.3104027277760279</v>
+      </c>
+      <c r="AE15">
+        <v>10</v>
+      </c>
+      <c r="AF15">
+        <v>3.4306045746624367E-2</v>
+      </c>
+      <c r="AG15">
+        <v>10</v>
+      </c>
+      <c r="AH15">
+        <v>0.31318547347197151</v>
+      </c>
+      <c r="AI15">
+        <v>10</v>
+      </c>
+      <c r="AJ15">
+        <v>0.65250848078140411</v>
+      </c>
+      <c r="AK15">
+        <v>9</v>
+      </c>
+      <c r="AL15">
+        <v>0.37182098487750048</v>
+      </c>
+      <c r="AM15">
+        <v>4</v>
+      </c>
+      <c r="AN15">
+        <v>0.17570157795058389</v>
+      </c>
+      <c r="AO15">
+        <v>8</v>
+      </c>
+      <c r="AP15">
+        <v>0.45247743717191563</v>
+      </c>
+      <c r="AQ15">
+        <v>10</v>
+      </c>
+      <c r="AR15">
+        <v>0.46421668939525035</v>
+      </c>
+      <c r="AS15">
+        <v>2</v>
+      </c>
+      <c r="AT15">
+        <v>2.9957215227251439E-2</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>0.50582609537749823</v>
+      </c>
+      <c r="AW15">
+        <v>7</v>
+      </c>
+      <c r="AX15">
+        <v>0.2198182064178773</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0.31694977034378047</v>
+      </c>
+      <c r="BA15">
+        <v>3</v>
+      </c>
+      <c r="BB15">
+        <v>0.46323202323834217</v>
+      </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="H16" s="2"/>
+      <c r="A16">
+        <v>693</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16">
+        <v>2007</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45440</v>
+      </c>
+      <c r="I16">
+        <v>423177</v>
+      </c>
+      <c r="J16">
+        <v>223847</v>
+      </c>
+      <c r="K16">
+        <v>250327</v>
+      </c>
+      <c r="L16">
+        <v>260415</v>
+      </c>
+      <c r="S16">
+        <v>9</v>
+      </c>
+      <c r="T16">
+        <v>0.27683727739091402</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+      <c r="V16">
+        <v>0.71031082234739962</v>
+      </c>
+      <c r="W16">
+        <v>7</v>
+      </c>
+      <c r="X16">
+        <v>1.2851900261686346E-2</v>
+      </c>
+      <c r="Y16">
+        <v>7</v>
+      </c>
+      <c r="Z16">
+        <v>0.33302969797993554</v>
+      </c>
+      <c r="AA16">
+        <v>4</v>
+      </c>
+      <c r="AB16">
+        <v>0.35656757424403657</v>
+      </c>
+      <c r="AC16">
+        <v>10</v>
+      </c>
+      <c r="AD16">
+        <v>0.3104027277760279</v>
+      </c>
+      <c r="AE16">
+        <v>7</v>
+      </c>
+      <c r="AF16">
+        <v>3.4306045746624367E-2</v>
+      </c>
+      <c r="AG16">
+        <v>5</v>
+      </c>
+      <c r="AH16">
+        <v>0.31318547347197151</v>
+      </c>
+      <c r="AI16">
+        <v>2</v>
+      </c>
+      <c r="AJ16">
+        <v>0.65250848078140411</v>
+      </c>
+      <c r="AK16">
+        <v>6</v>
+      </c>
+      <c r="AL16">
+        <v>0.37182098487750048</v>
+      </c>
+      <c r="AM16">
+        <v>8</v>
+      </c>
+      <c r="AN16">
+        <v>0.17570157795058389</v>
+      </c>
+      <c r="AO16">
+        <v>5</v>
+      </c>
+      <c r="AP16">
+        <v>0.45247743717191563</v>
+      </c>
+      <c r="AQ16">
+        <v>9</v>
+      </c>
+      <c r="AR16">
+        <v>0.46421668939525035</v>
+      </c>
+      <c r="AS16">
+        <v>3</v>
+      </c>
+      <c r="AT16">
+        <v>2.9957215227251439E-2</v>
+      </c>
+      <c r="AU16">
+        <v>7</v>
+      </c>
+      <c r="AV16">
+        <v>0.50582609537749823</v>
+      </c>
+      <c r="AW16">
+        <v>9</v>
+      </c>
+      <c r="AX16">
+        <v>0.2198182064178773</v>
+      </c>
+      <c r="AY16">
+        <v>3</v>
+      </c>
+      <c r="AZ16">
+        <v>0.31694977034378047</v>
+      </c>
+      <c r="BA16">
+        <v>4</v>
+      </c>
+      <c r="BB16">
+        <v>0.46323202323834217</v>
+      </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" s="2"/>
@@ -2508,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64CFA47-0D85-49BE-9419-049CF1B4EFB8}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -2550,7 +3600,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B2" s="7">
         <v>0.14000000000000001</v>
@@ -2585,7 +3635,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B3" s="7">
         <v>4.49</v>
@@ -2620,7 +3670,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B4" s="7">
         <v>27.58</v>
@@ -2659,7 +3709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C157C706-AB72-485C-943C-04577EFBFF1A}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -2701,106 +3751,106 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B2" s="8">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>0.5</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>0.67</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>0.75</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>0.8</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>0.83</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <v>0.86</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="7">
         <v>0.88</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <v>0.89</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>0.03</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>0.5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>0.6</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>0.67</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>0.71</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>0.75</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>0.78</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="11">
+        <v>93</v>
+      </c>
+      <c r="B4" s="10">
         <v>0</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>0</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>0</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>0.08</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>0.24</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>0.34</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>0.43</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>0.49</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <v>0.54</v>
       </c>
     </row>
@@ -2810,256 +3860,298 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCA23B7-E04A-4DF3-88A0-899473BED7A0}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="N1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="O1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="P1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="Q1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="R1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="S1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="T1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="U1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="V1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="W1" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="X1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="Y1" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="Z1" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AA1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="AB1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="AC1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="AD1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="AE1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="AF1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="AG1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="AH1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="AI1" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AJ1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AK1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AL1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="AM1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="AN1" t="s">
-        <v>127</v>
+        <v>144</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>54</v>
+        <v>706</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="14">
-        <v>45439.513275462959</v>
+      <c r="E2" s="13">
+        <v>45440.45034722222</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="O2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="Q2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="R2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="S2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="T2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="U2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="V2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="W2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="X2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="Y2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="Z2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AA2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="AB2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="AC2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="AD2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="AE2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="AF2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="AG2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AH2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AI2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="AJ2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="AK2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="AL2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="AM2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="s">
-        <v>95</v>
+        <v>112</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
